--- a/data/trans_camb/P7C_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P7C_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,6 +529,12 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -546,22 +552,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +595,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M5/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -642,6 +684,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +704,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>4,09</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,27</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-1,92</t>
+          <t>-0,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>44,44</t>
+          <t>15,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>37,16</t>
+          <t>0,68</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>-0,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>41,57</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,01</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>8,31</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -724,62 +802,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 16,66</t>
+          <t>-8,91; 7,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 12,8</t>
+          <t>-7,84; 6,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 3,47</t>
+          <t>-8,01; 5,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,14; 55,74</t>
+          <t>1,0; 40,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 6,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 7,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 4,7</t>
+          <t>-5,1; 10,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>25,53; 48,16</t>
+          <t>-6,57; 6,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 9,85</t>
+          <t>-6,82; 5,46</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 7,94</t>
+          <t>-4,34; 15,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>-3,28; 3,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>33,63; 49,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 7,46</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-4,36; 4,96</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-4,74; 3,97</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>0,86; 22,44</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -792,62 +900,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>37,66%</t>
+          <t>-1,61%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>39,36%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-17,66%</t>
+          <t>-4,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>409,64%</t>
+          <t>176,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>33,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>47,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>37,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>607,68%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>36,43%</t>
+          <t>5,13%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>43,6%</t>
+          <t>47,38%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>-1,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>509,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>18,05%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>5,24%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>0,13%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>103,68%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -860,62 +998,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-41,11; 215,81</t>
+          <t>-67,61; 146,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,24; 156,18</t>
+          <t>-56,96; 149,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-59,04; 47,35</t>
+          <t>-56,43; 126,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>194,39; 722,99</t>
+          <t>-4,66; 995,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-33,84; 155,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 162,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-37,98; 111,31</t>
+          <t>-47,85; 287,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>306,95; 1125,11</t>
+          <t>-54,94; 190,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-18,78; 156,72</t>
+          <t>-53,77; 163,7</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 115,34</t>
+          <t>-51,05; 450,26</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 51,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>331,23; 762,13</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-35,01; 148,19</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-37,5; 102,86</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-42,07; 74,11</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>0,88; 440,68</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -932,62 +1100,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,92</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>1,17</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>32,69</t>
+          <t>8,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>26,74</t>
+          <t>-1,82</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-3,4</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>29,7</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>-0,77</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>5,87</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1000,62 +1198,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 4,86</t>
+          <t>-7,54; 10,35</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 5,95</t>
+          <t>-8,4; 7,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 7,32</t>
+          <t>-7,95; 7,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>22,94; 41,75</t>
+          <t>-1,14; 17,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 5,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 3,93</t>
+          <t>-6,42; 6,88</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,82; 33,81</t>
+          <t>-7,83; 3,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 3,69</t>
+          <t>-9,29; 1,85</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 4,26</t>
+          <t>-2,9; 10,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 4,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>23,82; 35,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-4,81; 5,88</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-6,04; 3,48</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-6,15; 3,12</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 11,58</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1068,62 +1296,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-7,18%</t>
+          <t>6,52%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,29%</t>
+          <t>3,67%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,14%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>223,49%</t>
+          <t>57,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>155,07%</t>
+          <t>-8,93%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>-16,72%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>18,51%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>186,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>3,36%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>-4,39%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-7,33%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>33,58%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1394,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-34,51; 41,91</t>
+          <t>-41,22; 98,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-24,81; 49,08</t>
+          <t>-40,12; 75,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 62,18</t>
+          <t>-41,09; 79,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>134,59; 335,75</t>
+          <t>-10,13; 166,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 32,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 35,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-20,45; 24,92</t>
+          <t>-27,47; 40,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>101,06; 221,2</t>
+          <t>-32,89; 22,73</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 25,26</t>
+          <t>-37,65; 11,77</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-14,0; 28,87</t>
+          <t>-12,91; 61,04</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>-17,37; 28,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>136,92; 244,98</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-23,14; 39,82</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-28,99; 23,99</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-29,29; 22,23</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>2,69; 79,59</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1496,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,83</t>
+          <t>-1,15</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>12,51</t>
+          <t>7,08</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,53</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,21</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>0,28</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>-0,86</t>
+          <t>8,21</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>-1,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>17,15</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,49</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-1,59</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>7,63</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1594,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 4,18</t>
+          <t>-5,33; 10,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 3,79</t>
+          <t>-8,32; 5,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 1,27</t>
+          <t>-10,86; 2,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 27,13</t>
+          <t>-0,9; 13,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 3,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 5,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 5,02</t>
+          <t>-7,91; 6,12</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>9,04; 30,92</t>
+          <t>-6,17; 6,05</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 2,78</t>
+          <t>-6,28; 5,99</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 2,9</t>
+          <t>1,2; 14,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 1,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>8,27; 25,37</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 6,06</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-5,66; 4,01</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-6,09; 2,72</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>2,45; 12,87</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1692,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-6,28%</t>
+          <t>10,44%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-9,94%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-19,62%</t>
+          <t>-18,93%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>67,88%</t>
+          <t>38,3%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-7,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-0,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>-1,47%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>98,63%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-6,82%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>-4,45%</t>
+          <t>40,55%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>-8,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>88,2%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>3,81%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-2,52%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-8,21%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>39,23%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1412,69 +1790,99 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-33,28; 25,96</t>
+          <t>-25,46; 71,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-35,02; 25,52</t>
+          <t>-36,18; 37,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-41,61; 8,57</t>
+          <t>-46,27; 18,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,19; 160,67</t>
+          <t>-5,74; 95,66</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-30,85; 19,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-21,1; 31,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 27,73</t>
+          <t>-32,94; 36,64</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>42,37; 168,48</t>
+          <t>-25,83; 36,0</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-23,4; 15,99</t>
+          <t>-24,99; 37,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>-20,94; 17,05</t>
+          <t>4,25; 89,06</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 10,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>40,15; 139,75</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-21,82; 35,5</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-24,76; 24,91</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-26,54; 16,0</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>10,87; 80,18</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1484,62 +1892,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,71</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-1,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>31,54</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>27,48</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>7,27</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>-0,37</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>29,47</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>2,08</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>3,97</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1990,92 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 3,98</t>
+          <t>-4,7; 6,71</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 4,23</t>
+          <t>-3,11; 9,63</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 2,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>24,7; 37,92</t>
+          <t>-4,31; 5,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 3,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 3,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 2,98</t>
+          <t>-5,05; 2,62</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>22,13; 33,29</t>
+          <t>-3,24; 5,54</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 2,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,06</t>
+          <t>2,22; 12,11</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>-2,45; 1,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>24,84; 33,76</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,62; 3,43</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 6,18</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 7,93</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1620,62 +2088,92 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>209,3%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>4,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>-6,51%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>176,51%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>52,06%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>-2,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>192,3%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>-2,87%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>14,26%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>27,21%</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1688,75 +2186,509 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 29,45</t>
+          <t>-28,28; 47,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,57; 31,6</t>
+          <t>-18,87; 67,89</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-26,69; 17,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>149,92; 278,78</t>
+          <t>-24,35; 43,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-12,13; 23,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,53; 23,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-13,11; 20,39</t>
+          <t>-30,68; 20,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>134,8; 231,23</t>
+          <t>-22,41; 43,82</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 17,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>-7,83; 21,5</t>
+          <t>13,64; 92,28</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>-15,16; 13,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>153,28; 230,82</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-23,4; 25,56</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-10,73; 46,5</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>1,91; 56,93</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6,39</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>6,38</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>-0,55</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>6,39</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 4,33</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-3,03; 3,75</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; 2,22</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 11,44</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 3,46</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-1,98; 3,13</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-2,69; 2,62</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>3,27; 9,67</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 2,93</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-1,77; 2,73</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 1,75</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>4,1; 9,49</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>4,11%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-8,17%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>42,4%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>40,71%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>4,08%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>-3,56%</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>41,52%</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-19,04; 32,31</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-18,27; 28,28</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-28,09; 17,16</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>12,98; 82,37</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-13,88; 24,44</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-11,98; 21,19</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-15,91; 17,79</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>18,87; 65,5</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-10,05; 20,48</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-10,73; 18,92</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-15,67; 12,41</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>24,55; 64,76</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
